--- a/data/MI_CS1902v3.xlsx
+++ b/data/MI_CS1902v3.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/coop2711/Google 드라이브/Works/Class/Data_Science/R.WD/Case_Studies/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E8BB3F4-FEFE-F24F-A55A-3DF5BDC492FC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26E9196E-3E49-1749-88CB-84E81A0F2C6B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="40960" windowHeight="22580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="109">
   <si>
     <t>타임스탬프</t>
   </si>
@@ -618,11 +618,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:BH41"/>
+  <dimension ref="A1:BH39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C1" sqref="C1:C1048576"/>
+      <selection pane="bottomLeft" activeCell="A20" sqref="A20:XFD20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
@@ -814,64 +814,64 @@
     </row>
     <row r="2" spans="1:60" ht="15.75" customHeight="1">
       <c r="A2" s="2">
-        <v>43708.572339606486</v>
+        <v>43706.010665601847</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>66</v>
+        <v>89</v>
       </c>
       <c r="C2" s="3">
-        <v>20133316</v>
+        <v>20145106</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="E2" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F2" s="3">
         <v>3</v>
       </c>
       <c r="G2" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H2" s="3">
         <v>3</v>
       </c>
       <c r="I2" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J2" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K2" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L2" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M2" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N2" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O2" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P2" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q2" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R2" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S2" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T2" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="U2" s="3">
         <v>3</v>
@@ -880,7 +880,7 @@
         <v>2</v>
       </c>
       <c r="W2" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="X2" s="3">
         <v>3</v>
@@ -889,37 +889,37 @@
         <v>1</v>
       </c>
       <c r="Z2" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AA2" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AB2" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AC2" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD2" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AE2" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AF2" s="3">
         <v>3</v>
       </c>
       <c r="AG2" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AH2" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AI2" s="3">
         <v>3</v>
       </c>
       <c r="AJ2" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AK2" s="3">
         <v>2</v>
@@ -931,31 +931,31 @@
         <v>5</v>
       </c>
       <c r="AN2" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AO2" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AP2" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AQ2" s="3">
         <v>3</v>
       </c>
       <c r="AR2" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AS2" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AT2" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AU2" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AV2" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AW2" s="3">
         <v>2</v>
@@ -967,22 +967,22 @@
         <v>4</v>
       </c>
       <c r="AZ2" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BA2" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BB2" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BC2" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BD2" s="3">
         <v>5</v>
       </c>
       <c r="BE2" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BF2" s="3">
         <v>2</v>
@@ -996,22 +996,22 @@
     </row>
     <row r="3" spans="1:60" ht="15.75" customHeight="1">
       <c r="A3" s="2">
-        <v>43708.57241523148</v>
+        <v>43705.550792928239</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="C3" s="3">
-        <v>20133316</v>
+        <v>20183205</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>106</v>
+        <v>71</v>
       </c>
       <c r="E3" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F3" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G3" s="3">
         <v>4</v>
@@ -1020,82 +1020,82 @@
         <v>3</v>
       </c>
       <c r="I3" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J3" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K3" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L3" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M3" s="3">
         <v>1</v>
       </c>
       <c r="N3" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O3" s="3">
         <v>5</v>
       </c>
       <c r="P3" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="Q3" s="3">
         <v>4</v>
       </c>
       <c r="R3" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S3" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T3" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U3" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V3" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="W3" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="X3" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Y3" s="3">
         <v>1</v>
       </c>
       <c r="Z3" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AA3" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AB3" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AC3" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD3" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AE3" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AF3" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AG3" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AH3" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AI3" s="3">
         <v>3</v>
@@ -1107,31 +1107,31 @@
         <v>2</v>
       </c>
       <c r="AL3" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AM3" s="3">
         <v>5</v>
       </c>
       <c r="AN3" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AO3" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AP3" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AQ3" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AR3" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AS3" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AT3" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AU3" s="3">
         <v>5</v>
@@ -1140,37 +1140,37 @@
         <v>4</v>
       </c>
       <c r="AW3" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX3" s="3">
         <v>4</v>
       </c>
       <c r="AY3" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AZ3" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BA3" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BB3" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BC3" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BD3" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="BE3" s="3">
         <v>4</v>
       </c>
       <c r="BF3" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BG3" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BH3" s="3">
         <v>4</v>
@@ -1178,19 +1178,19 @@
     </row>
     <row r="4" spans="1:60" ht="15.75" customHeight="1">
       <c r="A4" s="2">
-        <v>43705.553477083333</v>
+        <v>43705.692827685183</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="C4" s="3">
-        <v>20143432</v>
+        <v>20157096</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="E4" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F4" s="3">
         <v>2</v>
@@ -1199,52 +1199,52 @@
         <v>2</v>
       </c>
       <c r="H4" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I4" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J4" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K4" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L4" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M4" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N4" s="3">
         <v>3</v>
       </c>
       <c r="O4" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P4" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q4" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R4" s="3">
         <v>2</v>
       </c>
       <c r="S4" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T4" s="3">
         <v>2</v>
       </c>
       <c r="U4" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V4" s="3">
         <v>1</v>
       </c>
       <c r="W4" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X4" s="3">
         <v>2</v>
@@ -1253,13 +1253,13 @@
         <v>1</v>
       </c>
       <c r="Z4" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AA4" s="3">
         <v>3</v>
       </c>
       <c r="AB4" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC4" s="3">
         <v>1</v>
@@ -1268,70 +1268,70 @@
         <v>1</v>
       </c>
       <c r="AE4" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF4" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AG4" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AH4" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AI4" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AJ4" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AK4" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AL4" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AM4" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AN4" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AO4" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AP4" s="3">
         <v>3</v>
       </c>
       <c r="AQ4" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AR4" s="3">
         <v>1</v>
       </c>
       <c r="AS4" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AT4" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AU4" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AV4" s="3">
         <v>2</v>
       </c>
       <c r="AW4" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AX4" s="3">
         <v>3</v>
       </c>
       <c r="AY4" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AZ4" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BA4" s="3">
         <v>1</v>
@@ -1340,19 +1340,19 @@
         <v>1</v>
       </c>
       <c r="BC4" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BD4" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BE4" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BF4" s="3">
         <v>1</v>
       </c>
       <c r="BG4" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BH4" s="3">
         <v>2</v>
@@ -1360,16 +1360,16 @@
     </row>
     <row r="5" spans="1:60" ht="15.75" customHeight="1">
       <c r="A5" s="2">
-        <v>43706.010665601847</v>
+        <v>43705.56585515046</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="C5" s="3">
-        <v>20145106</v>
+        <v>20153307</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="E5" s="3">
         <v>4</v>
@@ -1378,10 +1378,10 @@
         <v>3</v>
       </c>
       <c r="G5" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H5" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I5" s="3">
         <v>3</v>
@@ -1390,19 +1390,19 @@
         <v>3</v>
       </c>
       <c r="K5" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L5" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M5" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N5" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O5" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P5" s="3">
         <v>3</v>
@@ -1411,70 +1411,70 @@
         <v>3</v>
       </c>
       <c r="R5" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S5" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T5" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="U5" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V5" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W5" s="3">
         <v>3</v>
       </c>
       <c r="X5" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Y5" s="3">
         <v>1</v>
       </c>
       <c r="Z5" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AA5" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AB5" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AC5" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD5" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE5" s="3">
         <v>3</v>
       </c>
       <c r="AF5" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AG5" s="3">
         <v>3</v>
       </c>
       <c r="AH5" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AI5" s="3">
         <v>3</v>
       </c>
       <c r="AJ5" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AK5" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AL5" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AM5" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AN5" s="3">
         <v>1</v>
@@ -1483,58 +1483,58 @@
         <v>3</v>
       </c>
       <c r="AP5" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AQ5" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AR5" s="3">
         <v>1</v>
       </c>
       <c r="AS5" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AT5" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AU5" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AV5" s="3">
         <v>3</v>
       </c>
       <c r="AW5" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX5" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AY5" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AZ5" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BA5" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BB5" s="3">
         <v>1</v>
       </c>
       <c r="BC5" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BD5" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BE5" s="3">
         <v>3</v>
       </c>
       <c r="BF5" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BG5" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BH5" s="3">
         <v>4</v>
@@ -1542,28 +1542,28 @@
     </row>
     <row r="6" spans="1:60" ht="15.75" customHeight="1">
       <c r="A6" s="2">
-        <v>43705.56585515046</v>
+        <v>43705.551207175929</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>66</v>
       </c>
       <c r="C6" s="3">
-        <v>20153307</v>
+        <v>20153408</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="E6" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F6" s="3">
         <v>3</v>
       </c>
       <c r="G6" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H6" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I6" s="3">
         <v>3</v>
@@ -1575,19 +1575,19 @@
         <v>3</v>
       </c>
       <c r="L6" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M6" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N6" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O6" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P6" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q6" s="3">
         <v>3</v>
@@ -1599,22 +1599,22 @@
         <v>3</v>
       </c>
       <c r="T6" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U6" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V6" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W6" s="3">
         <v>3</v>
       </c>
       <c r="X6" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Y6" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Z6" s="3">
         <v>3</v>
@@ -1623,19 +1623,19 @@
         <v>3</v>
       </c>
       <c r="AB6" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AC6" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AD6" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE6" s="3">
         <v>3</v>
       </c>
       <c r="AF6" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AG6" s="3">
         <v>3</v>
@@ -1647,96 +1647,96 @@
         <v>3</v>
       </c>
       <c r="AJ6" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AK6" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AL6" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AM6" s="3">
         <v>3</v>
       </c>
       <c r="AN6" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AO6" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AP6" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AQ6" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AR6" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AS6" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AT6" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AU6" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AV6" s="3">
         <v>3</v>
       </c>
       <c r="AW6" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AX6" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AY6" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AZ6" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="BA6" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BB6" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BC6" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BD6" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BE6" s="3">
         <v>3</v>
       </c>
       <c r="BF6" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BG6" s="3">
         <v>3</v>
       </c>
       <c r="BH6" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:60" ht="15.75" customHeight="1">
       <c r="A7" s="2">
-        <v>43706.638297013887</v>
+        <v>43705.566738958332</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>66</v>
       </c>
       <c r="C7" s="3">
-        <v>20153319</v>
+        <v>20173221</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="E7" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F7" s="3">
         <v>3</v>
@@ -1745,49 +1745,49 @@
         <v>3</v>
       </c>
       <c r="H7" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I7" s="3">
         <v>2</v>
       </c>
       <c r="J7" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K7" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L7" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M7" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N7" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O7" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P7" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Q7" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R7" s="3">
         <v>3</v>
       </c>
       <c r="S7" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T7" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U7" s="3">
         <v>2</v>
       </c>
       <c r="V7" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="W7" s="3">
         <v>3</v>
@@ -1796,61 +1796,61 @@
         <v>2</v>
       </c>
       <c r="Y7" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z7" s="3">
         <v>3</v>
       </c>
       <c r="AA7" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AB7" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AC7" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD7" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AE7" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AF7" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AG7" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AH7" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AI7" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AJ7" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AK7" s="3">
         <v>2</v>
       </c>
       <c r="AL7" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AM7" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AN7" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AO7" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AP7" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AQ7" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AR7" s="3">
         <v>2</v>
@@ -1859,66 +1859,66 @@
         <v>2</v>
       </c>
       <c r="AT7" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AU7" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AV7" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AW7" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX7" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AY7" s="3">
         <v>4</v>
       </c>
       <c r="AZ7" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BA7" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BB7" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BC7" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BD7" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BE7" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BF7" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BG7" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BH7" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:60" ht="15.75" customHeight="1">
       <c r="A8" s="2">
-        <v>43705.551207175929</v>
+        <v>43705.565000532406</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>66</v>
       </c>
       <c r="C8" s="3">
-        <v>20153408</v>
+        <v>20173222</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="E8" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F8" s="3">
         <v>3</v>
@@ -1927,31 +1927,31 @@
         <v>3</v>
       </c>
       <c r="H8" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I8" s="3">
         <v>3</v>
       </c>
       <c r="J8" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K8" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L8" s="3">
         <v>3</v>
       </c>
       <c r="M8" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N8" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O8" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P8" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q8" s="3">
         <v>3</v>
@@ -1960,13 +1960,13 @@
         <v>3</v>
       </c>
       <c r="S8" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T8" s="3">
         <v>3</v>
       </c>
       <c r="U8" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V8" s="3">
         <v>3</v>
@@ -1975,186 +1975,186 @@
         <v>3</v>
       </c>
       <c r="X8" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Y8" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Z8" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AA8" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AB8" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AC8" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AD8" s="3">
         <v>3</v>
       </c>
       <c r="AE8" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AF8" s="3">
         <v>3</v>
       </c>
       <c r="AG8" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AH8" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AI8" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AJ8" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AK8" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AL8" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AM8" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AN8" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AO8" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AP8" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AQ8" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AR8" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AS8" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AT8" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AU8" s="3">
         <v>4</v>
       </c>
       <c r="AV8" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AW8" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AX8" s="3">
         <v>4</v>
       </c>
       <c r="AY8" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AZ8" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BA8" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BB8" s="3">
         <v>3</v>
       </c>
       <c r="BC8" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BD8" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BE8" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BF8" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BG8" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BH8" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:60" ht="15.75" customHeight="1">
       <c r="A9" s="2">
-        <v>43705.550961053239</v>
+        <v>43705.628904386569</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="C9" s="3">
-        <v>20153414</v>
+        <v>20183214</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="E9" s="3">
         <v>5</v>
       </c>
       <c r="F9" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G9" s="3">
         <v>3</v>
       </c>
       <c r="H9" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I9" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J9" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K9" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L9" s="3">
         <v>1</v>
       </c>
       <c r="M9" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N9" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O9" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P9" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q9" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R9" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S9" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T9" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U9" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V9" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="W9" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="X9" s="3">
         <v>1</v>
@@ -2172,46 +2172,46 @@
         <v>1</v>
       </c>
       <c r="AC9" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD9" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AE9" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AF9" s="3">
         <v>3</v>
       </c>
       <c r="AG9" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AH9" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AI9" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AJ9" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AK9" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AL9" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AM9" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AN9" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO9" s="3">
         <v>3</v>
       </c>
       <c r="AP9" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AQ9" s="3">
         <v>2</v>
@@ -2220,7 +2220,7 @@
         <v>1</v>
       </c>
       <c r="AS9" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AT9" s="3">
         <v>1</v>
@@ -2229,16 +2229,16 @@
         <v>3</v>
       </c>
       <c r="AV9" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AW9" s="3">
         <v>1</v>
       </c>
       <c r="AX9" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AY9" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AZ9" s="3">
         <v>1</v>
@@ -2250,69 +2250,69 @@
         <v>1</v>
       </c>
       <c r="BC9" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BD9" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BE9" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BF9" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BG9" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BH9" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:60" ht="15.75" customHeight="1">
       <c r="A10" s="2">
-        <v>43712.524315405091</v>
+        <v>43706.88262315972</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C10" s="3">
-        <v>20153418</v>
+        <v>20163210</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="E10" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F10" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G10" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H10" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I10" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J10" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K10" s="3">
         <v>4</v>
       </c>
       <c r="L10" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M10" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N10" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O10" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P10" s="3">
         <v>5</v>
@@ -2321,7 +2321,7 @@
         <v>3</v>
       </c>
       <c r="R10" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S10" s="3">
         <v>4</v>
@@ -2330,19 +2330,19 @@
         <v>4</v>
       </c>
       <c r="U10" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V10" s="3">
         <v>4</v>
       </c>
       <c r="W10" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="X10" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y10" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Z10" s="3">
         <v>3</v>
@@ -2351,37 +2351,37 @@
         <v>3</v>
       </c>
       <c r="AB10" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AC10" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AD10" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AE10" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AF10" s="3">
         <v>4</v>
       </c>
       <c r="AG10" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AH10" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AI10" s="3">
         <v>4</v>
       </c>
       <c r="AJ10" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AK10" s="3">
         <v>3</v>
       </c>
       <c r="AL10" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AM10" s="3">
         <v>4</v>
@@ -2393,37 +2393,37 @@
         <v>3</v>
       </c>
       <c r="AP10" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AQ10" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AR10" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AS10" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AT10" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AU10" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AV10" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AW10" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AX10" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AY10" s="3">
         <v>4</v>
       </c>
       <c r="AZ10" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BA10" s="3">
         <v>4</v>
@@ -2441,10 +2441,10 @@
         <v>3</v>
       </c>
       <c r="BF10" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BG10" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BH10" s="3">
         <v>3</v>
@@ -2452,58 +2452,58 @@
     </row>
     <row r="11" spans="1:60" ht="15.75" customHeight="1">
       <c r="A11" s="2">
-        <v>43705.587223877315</v>
+        <v>43705.550058078705</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>66</v>
       </c>
       <c r="C11" s="3">
-        <v>20153423</v>
+        <v>20173228</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>88</v>
+        <v>67</v>
       </c>
       <c r="E11" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F11" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G11" s="3">
         <v>4</v>
       </c>
       <c r="H11" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I11" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J11" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K11" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L11" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M11" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N11" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="O11" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="P11" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q11" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R11" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S11" s="3">
         <v>5</v>
@@ -2515,10 +2515,10 @@
         <v>4</v>
       </c>
       <c r="V11" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="W11" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="X11" s="3">
         <v>2</v>
@@ -2530,52 +2530,52 @@
         <v>4</v>
       </c>
       <c r="AA11" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AB11" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AC11" s="3">
         <v>2</v>
       </c>
       <c r="AD11" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AE11" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AF11" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AG11" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AH11" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AI11" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AJ11" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AK11" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AL11" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AM11" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AN11" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AO11" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AP11" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AQ11" s="3">
         <v>5</v>
@@ -2584,22 +2584,22 @@
         <v>2</v>
       </c>
       <c r="AS11" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AT11" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AU11" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AV11" s="3">
         <v>4</v>
       </c>
       <c r="AW11" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX11" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AY11" s="3">
         <v>4</v>
@@ -2611,78 +2611,78 @@
         <v>3</v>
       </c>
       <c r="BB11" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="BC11" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BD11" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BE11" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BF11" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BG11" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BH11" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:60" ht="15.75" customHeight="1">
       <c r="A12" s="2">
-        <v>43705.549458530091</v>
+        <v>43705.549952094909</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C12" s="3">
-        <v>20153427</v>
+        <v>20163215</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E12" s="3">
         <v>2</v>
       </c>
       <c r="F12" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G12" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H12" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I12" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J12" s="3">
         <v>4</v>
       </c>
       <c r="K12" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L12" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M12" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N12" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O12" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P12" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q12" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R12" s="3">
         <v>3</v>
@@ -2694,55 +2694,55 @@
         <v>2</v>
       </c>
       <c r="U12" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V12" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="W12" s="3">
         <v>4</v>
       </c>
       <c r="X12" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Y12" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z12" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AA12" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AB12" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AC12" s="3">
         <v>2</v>
       </c>
       <c r="AD12" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AE12" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AF12" s="3">
         <v>3</v>
       </c>
       <c r="AG12" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AH12" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AI12" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AJ12" s="3">
         <v>3</v>
       </c>
       <c r="AK12" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AL12" s="3">
         <v>2</v>
@@ -2757,19 +2757,19 @@
         <v>3</v>
       </c>
       <c r="AP12" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AQ12" s="3">
         <v>2</v>
       </c>
       <c r="AR12" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AS12" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AT12" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AU12" s="3">
         <v>4</v>
@@ -2781,13 +2781,13 @@
         <v>2</v>
       </c>
       <c r="AX12" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AY12" s="3">
         <v>4</v>
       </c>
       <c r="AZ12" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BA12" s="3">
         <v>2</v>
@@ -2796,13 +2796,13 @@
         <v>2</v>
       </c>
       <c r="BC12" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BD12" s="3">
         <v>3</v>
       </c>
       <c r="BE12" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BF12" s="3">
         <v>3</v>
@@ -2811,30 +2811,30 @@
         <v>4</v>
       </c>
       <c r="BH12" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:60" ht="15.75" customHeight="1">
       <c r="A13" s="2">
-        <v>43705.583818900464</v>
+        <v>43705.550961053239</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>66</v>
       </c>
       <c r="C13" s="3">
-        <v>20153433</v>
+        <v>20153414</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="E13" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F13" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G13" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H13" s="3">
         <v>2</v>
@@ -2843,31 +2843,31 @@
         <v>2</v>
       </c>
       <c r="J13" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K13" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L13" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M13" s="3">
         <v>2</v>
       </c>
       <c r="N13" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O13" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P13" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Q13" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R13" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S13" s="3">
         <v>3</v>
@@ -2876,353 +2876,353 @@
         <v>2</v>
       </c>
       <c r="U13" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V13" s="3">
         <v>3</v>
       </c>
       <c r="W13" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="X13" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y13" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z13" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AA13" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AB13" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC13" s="3">
         <v>2</v>
       </c>
       <c r="AD13" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AE13" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AF13" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AG13" s="3">
         <v>2</v>
       </c>
       <c r="AH13" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AI13" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AJ13" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AK13" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AL13" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AM13" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AN13" s="3">
         <v>2</v>
       </c>
       <c r="AO13" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AP13" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AQ13" s="3">
         <v>2</v>
       </c>
       <c r="AR13" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AS13" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AT13" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AU13" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AV13" s="3">
         <v>2</v>
       </c>
       <c r="AW13" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX13" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AY13" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AZ13" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BA13" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BB13" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BC13" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BD13" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BE13" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BF13" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BG13" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BH13" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:60" ht="15.75" customHeight="1">
       <c r="A14" s="2">
-        <v>43705.692827685183</v>
+        <v>43705.668021874997</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C14" s="3">
-        <v>20157096</v>
+        <v>20173261</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E14" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F14" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G14" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H14" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I14" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J14" s="3">
         <v>4</v>
       </c>
       <c r="K14" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L14" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M14" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N14" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O14" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P14" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q14" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R14" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S14" s="3">
         <v>4</v>
       </c>
       <c r="T14" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U14" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V14" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="W14" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="X14" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Y14" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Z14" s="3">
         <v>4</v>
       </c>
       <c r="AA14" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AB14" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AC14" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AD14" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AE14" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AF14" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AG14" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AH14" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AI14" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AJ14" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AK14" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AL14" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AM14" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AN14" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AO14" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AP14" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AQ14" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AR14" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AS14" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AT14" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AU14" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AV14" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AW14" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AX14" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AY14" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AZ14" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BA14" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BB14" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BC14" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="BD14" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="BE14" s="3">
         <v>4</v>
       </c>
       <c r="BF14" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="BG14" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BH14" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:60" ht="15.75" customHeight="1">
       <c r="A15" s="2">
-        <v>43706.88262315972</v>
+        <v>43712.524315405091</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C15" s="3">
-        <v>20163210</v>
+        <v>20153418</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="E15" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F15" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G15" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H15" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I15" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J15" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K15" s="3">
         <v>4</v>
       </c>
       <c r="L15" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M15" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N15" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O15" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P15" s="3">
         <v>5</v>
@@ -3231,7 +3231,7 @@
         <v>3</v>
       </c>
       <c r="R15" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S15" s="3">
         <v>4</v>
@@ -3240,19 +3240,19 @@
         <v>4</v>
       </c>
       <c r="U15" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V15" s="3">
         <v>4</v>
       </c>
       <c r="W15" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="X15" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y15" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Z15" s="3">
         <v>3</v>
@@ -3261,37 +3261,37 @@
         <v>3</v>
       </c>
       <c r="AB15" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AC15" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AD15" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AE15" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AF15" s="3">
         <v>4</v>
       </c>
       <c r="AG15" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AH15" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AI15" s="3">
         <v>4</v>
       </c>
       <c r="AJ15" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AK15" s="3">
         <v>3</v>
       </c>
       <c r="AL15" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AM15" s="3">
         <v>4</v>
@@ -3303,37 +3303,37 @@
         <v>3</v>
       </c>
       <c r="AP15" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AQ15" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AR15" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AS15" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AT15" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AU15" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AV15" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AW15" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AX15" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AY15" s="3">
         <v>4</v>
       </c>
       <c r="AZ15" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BA15" s="3">
         <v>4</v>
@@ -3351,10 +3351,10 @@
         <v>3</v>
       </c>
       <c r="BF15" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BG15" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BH15" s="3">
         <v>3</v>
@@ -3362,28 +3362,28 @@
     </row>
     <row r="16" spans="1:60" ht="15.75" customHeight="1">
       <c r="A16" s="2">
-        <v>43705.549952094909</v>
+        <v>43708.639367465279</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C16" s="3">
-        <v>20163215</v>
+        <v>20163222</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>65</v>
+        <v>107</v>
       </c>
       <c r="E16" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F16" s="3">
         <v>4</v>
       </c>
       <c r="G16" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H16" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I16" s="3">
         <v>3</v>
@@ -3395,13 +3395,13 @@
         <v>4</v>
       </c>
       <c r="L16" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M16" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N16" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O16" s="3">
         <v>3</v>
@@ -3410,7 +3410,7 @@
         <v>3</v>
       </c>
       <c r="Q16" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R16" s="3">
         <v>3</v>
@@ -3419,22 +3419,22 @@
         <v>4</v>
       </c>
       <c r="T16" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U16" s="3">
         <v>3</v>
       </c>
       <c r="V16" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="W16" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="X16" s="3">
         <v>3</v>
       </c>
       <c r="Y16" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Z16" s="3">
         <v>4</v>
@@ -3443,13 +3443,13 @@
         <v>3</v>
       </c>
       <c r="AB16" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AC16" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AD16" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AE16" s="3">
         <v>4</v>
@@ -3458,46 +3458,46 @@
         <v>3</v>
       </c>
       <c r="AG16" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AH16" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AI16" s="3">
         <v>3</v>
       </c>
       <c r="AJ16" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AK16" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AL16" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AM16" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AN16" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AO16" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AP16" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AQ16" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AR16" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AS16" s="3">
         <v>3</v>
       </c>
       <c r="AT16" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AU16" s="3">
         <v>4</v>
@@ -3506,7 +3506,7 @@
         <v>3</v>
       </c>
       <c r="AW16" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AX16" s="3">
         <v>4</v>
@@ -3515,16 +3515,16 @@
         <v>4</v>
       </c>
       <c r="AZ16" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BA16" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BB16" s="3">
         <v>2</v>
       </c>
       <c r="BC16" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BD16" s="3">
         <v>3</v>
@@ -3536,7 +3536,7 @@
         <v>3</v>
       </c>
       <c r="BG16" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BH16" s="3">
         <v>3</v>
@@ -3544,43 +3544,43 @@
     </row>
     <row r="17" spans="1:60" ht="15.75" customHeight="1">
       <c r="A17" s="2">
-        <v>43708.639367465279</v>
+        <v>43706.749465092595</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C17" s="3">
-        <v>20163222</v>
+        <v>20173232</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="E17" s="3">
         <v>4</v>
       </c>
       <c r="F17" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G17" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H17" s="3">
         <v>4</v>
       </c>
       <c r="I17" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J17" s="3">
         <v>4</v>
       </c>
       <c r="K17" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L17" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M17" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N17" s="3">
         <v>3</v>
@@ -3595,61 +3595,61 @@
         <v>3</v>
       </c>
       <c r="R17" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S17" s="3">
         <v>4</v>
       </c>
       <c r="T17" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U17" s="3">
         <v>3</v>
       </c>
       <c r="V17" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W17" s="3">
         <v>3</v>
       </c>
       <c r="X17" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Y17" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Z17" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AA17" s="3">
         <v>3</v>
       </c>
       <c r="AB17" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AC17" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AD17" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AE17" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AF17" s="3">
         <v>3</v>
       </c>
       <c r="AG17" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AH17" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AI17" s="3">
         <v>3</v>
       </c>
       <c r="AJ17" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AK17" s="3">
         <v>2</v>
@@ -3664,10 +3664,10 @@
         <v>4</v>
       </c>
       <c r="AO17" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AP17" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AQ17" s="3">
         <v>3</v>
@@ -3676,46 +3676,46 @@
         <v>2</v>
       </c>
       <c r="AS17" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AT17" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AU17" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AV17" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AW17" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AX17" s="3">
         <v>4</v>
       </c>
       <c r="AY17" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AZ17" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BA17" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BB17" s="3">
         <v>2</v>
       </c>
       <c r="BC17" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BD17" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BE17" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BF17" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BG17" s="3">
         <v>3</v>
@@ -3726,127 +3726,127 @@
     </row>
     <row r="18" spans="1:60" ht="15.75" customHeight="1">
       <c r="A18" s="2">
-        <v>43705.550117997685</v>
+        <v>43705.597242141201</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>68</v>
+        <v>89</v>
       </c>
       <c r="C18" s="3">
-        <v>20163226</v>
+        <v>20165317</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>69</v>
+        <v>90</v>
       </c>
       <c r="E18" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F18" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G18" s="3">
         <v>2</v>
       </c>
       <c r="H18" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I18" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J18" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K18" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L18" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M18" s="3">
         <v>1</v>
       </c>
       <c r="N18" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O18" s="3">
         <v>4</v>
       </c>
       <c r="P18" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Q18" s="3">
         <v>3</v>
       </c>
       <c r="R18" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S18" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T18" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="U18" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V18" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="W18" s="3">
         <v>3</v>
       </c>
       <c r="X18" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Y18" s="3">
         <v>1</v>
       </c>
       <c r="Z18" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AA18" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AB18" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC18" s="3">
         <v>1</v>
       </c>
       <c r="AD18" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AE18" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AF18" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AG18" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AH18" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AI18" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AJ18" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AK18" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AL18" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AM18" s="3">
         <v>5</v>
       </c>
       <c r="AN18" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AO18" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AP18" s="3">
         <v>4</v>
@@ -3855,31 +3855,31 @@
         <v>3</v>
       </c>
       <c r="AR18" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AS18" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AT18" s="3">
         <v>1</v>
       </c>
       <c r="AU18" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AV18" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AW18" s="3">
         <v>2</v>
       </c>
       <c r="AX18" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AY18" s="3">
         <v>4</v>
       </c>
       <c r="AZ18" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BA18" s="3">
         <v>3</v>
@@ -3888,19 +3888,19 @@
         <v>2</v>
       </c>
       <c r="BC18" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BD18" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BE18" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BF18" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BG18" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BH18" s="3">
         <v>4</v>
@@ -3908,16 +3908,16 @@
     </row>
     <row r="19" spans="1:60" ht="15.75" customHeight="1">
       <c r="A19" s="2">
-        <v>43705.556608634259</v>
+        <v>43706.638297013887</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C19" s="3">
-        <v>20163257</v>
+        <v>20153319</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="E19" s="3">
         <v>4</v>
@@ -3929,31 +3929,31 @@
         <v>3</v>
       </c>
       <c r="H19" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I19" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J19" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K19" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L19" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M19" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N19" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O19" s="3">
         <v>2</v>
       </c>
       <c r="P19" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q19" s="3">
         <v>3</v>
@@ -3962,7 +3962,7 @@
         <v>3</v>
       </c>
       <c r="S19" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T19" s="3">
         <v>3</v>
@@ -3977,13 +3977,13 @@
         <v>3</v>
       </c>
       <c r="X19" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Y19" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z19" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AA19" s="3">
         <v>4</v>
@@ -3995,19 +3995,19 @@
         <v>1</v>
       </c>
       <c r="AD19" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AE19" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AF19" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AG19" s="3">
         <v>2</v>
       </c>
       <c r="AH19" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AI19" s="3">
         <v>2</v>
@@ -4019,22 +4019,22 @@
         <v>2</v>
       </c>
       <c r="AL19" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AM19" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AN19" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO19" s="3">
         <v>3</v>
       </c>
       <c r="AP19" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AQ19" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AR19" s="3">
         <v>2</v>
@@ -4046,16 +4046,16 @@
         <v>2</v>
       </c>
       <c r="AU19" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AV19" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AW19" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AX19" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AY19" s="3">
         <v>4</v>
@@ -4067,87 +4067,87 @@
         <v>2</v>
       </c>
       <c r="BB19" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BC19" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BD19" s="3">
         <v>2</v>
       </c>
       <c r="BE19" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BF19" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BG19" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BH19" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:60" ht="15.75" customHeight="1">
       <c r="A20" s="2">
-        <v>43705.597242141201</v>
+        <v>43708.57241523148</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="C20" s="3">
-        <v>20165317</v>
+        <v>20133316</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="E20" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F20" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G20" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H20" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I20" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J20" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K20" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L20" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M20" s="3">
         <v>1</v>
       </c>
       <c r="N20" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O20" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P20" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q20" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R20" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S20" s="3">
         <v>5</v>
       </c>
       <c r="T20" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="U20" s="3">
         <v>3</v>
@@ -4156,7 +4156,7 @@
         <v>2</v>
       </c>
       <c r="W20" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="X20" s="3">
         <v>3</v>
@@ -4165,70 +4165,70 @@
         <v>1</v>
       </c>
       <c r="Z20" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AA20" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AB20" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC20" s="3">
         <v>1</v>
       </c>
       <c r="AD20" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE20" s="3">
         <v>4</v>
       </c>
       <c r="AF20" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AG20" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AH20" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AI20" s="3">
         <v>3</v>
       </c>
       <c r="AJ20" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AK20" s="3">
         <v>2</v>
       </c>
       <c r="AL20" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AM20" s="3">
         <v>5</v>
       </c>
       <c r="AN20" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AO20" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AP20" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AQ20" s="3">
         <v>3</v>
       </c>
       <c r="AR20" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AS20" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AT20" s="3">
         <v>1</v>
       </c>
       <c r="AU20" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AV20" s="3">
         <v>4</v>
@@ -4237,13 +4237,13 @@
         <v>2</v>
       </c>
       <c r="AX20" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AY20" s="3">
         <v>4</v>
       </c>
       <c r="AZ20" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BA20" s="3">
         <v>3</v>
@@ -4252,16 +4252,16 @@
         <v>2</v>
       </c>
       <c r="BC20" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BD20" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BE20" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BF20" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BG20" s="3">
         <v>4</v>
@@ -4272,40 +4272,40 @@
     </row>
     <row r="21" spans="1:60" ht="15.75" customHeight="1">
       <c r="A21" s="2">
-        <v>43706.387945266208</v>
+        <v>43705.550117997685</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>89</v>
+        <v>68</v>
       </c>
       <c r="C21" s="3">
-        <v>20165325</v>
+        <v>20163226</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>96</v>
+        <v>69</v>
       </c>
       <c r="E21" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F21" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G21" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H21" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I21" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J21" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K21" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L21" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M21" s="3">
         <v>1</v>
@@ -4314,222 +4314,222 @@
         <v>3</v>
       </c>
       <c r="O21" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P21" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q21" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R21" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S21" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="T21" s="3">
         <v>2</v>
       </c>
       <c r="U21" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V21" s="3">
         <v>4</v>
       </c>
       <c r="W21" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X21" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y21" s="3">
         <v>1</v>
       </c>
       <c r="Z21" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AA21" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AB21" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC21" s="3">
         <v>1</v>
       </c>
       <c r="AD21" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AE21" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AF21" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AG21" s="3">
         <v>1</v>
       </c>
       <c r="AH21" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AI21" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AJ21" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AK21" s="3">
         <v>1</v>
       </c>
       <c r="AL21" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AM21" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AN21" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AO21" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AP21" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AQ21" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AR21" s="3">
         <v>1</v>
       </c>
       <c r="AS21" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AT21" s="3">
         <v>1</v>
       </c>
       <c r="AU21" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AV21" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AW21" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX21" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AY21" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AZ21" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BA21" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BB21" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BC21" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BD21" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BE21" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BF21" s="3">
         <v>1</v>
       </c>
       <c r="BG21" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="BH21" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:60" ht="15.75" customHeight="1">
       <c r="A22" s="2">
-        <v>43705.549000497689</v>
+        <v>43705.580699259255</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="C22" s="3">
-        <v>20172628</v>
+        <v>20177094</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>61</v>
+        <v>86</v>
       </c>
       <c r="E22" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F22" s="3">
         <v>4</v>
       </c>
       <c r="G22" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H22" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I22" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J22" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K22" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L22" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M22" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N22" s="3">
         <v>4</v>
       </c>
       <c r="O22" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P22" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Q22" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R22" s="3">
         <v>4</v>
       </c>
       <c r="S22" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T22" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="U22" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V22" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="W22" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="X22" s="3">
         <v>4</v>
       </c>
       <c r="Y22" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z22" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AA22" s="3">
         <v>4</v>
@@ -4538,67 +4538,67 @@
         <v>2</v>
       </c>
       <c r="AC22" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AD22" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AE22" s="3">
         <v>3</v>
       </c>
       <c r="AF22" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AG22" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AH22" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AI22" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AJ22" s="3">
         <v>4</v>
       </c>
       <c r="AK22" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AL22" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AM22" s="3">
         <v>2</v>
       </c>
       <c r="AN22" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AO22" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AP22" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AQ22" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AR22" s="3">
         <v>1</v>
       </c>
       <c r="AS22" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AT22" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AU22" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AV22" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AW22" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AX22" s="3">
         <v>4</v>
@@ -4607,78 +4607,78 @@
         <v>4</v>
       </c>
       <c r="AZ22" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BA22" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="BB22" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BC22" s="3">
         <v>4</v>
       </c>
       <c r="BD22" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BE22" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BF22" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="BG22" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BH22" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:60" ht="15.75" customHeight="1">
       <c r="A23" s="2">
-        <v>43705.566738958332</v>
+        <v>43705.587223877315</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>66</v>
       </c>
       <c r="C23" s="3">
-        <v>20173221</v>
+        <v>20153423</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="E23" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F23" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G23" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H23" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I23" s="3">
         <v>2</v>
       </c>
       <c r="J23" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K23" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L23" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M23" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N23" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O23" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P23" s="3">
         <v>4</v>
@@ -4687,49 +4687,49 @@
         <v>4</v>
       </c>
       <c r="R23" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S23" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T23" s="3">
         <v>2</v>
       </c>
       <c r="U23" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="V23" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="W23" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="X23" s="3">
         <v>2</v>
       </c>
       <c r="Y23" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z23" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AA23" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AB23" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AC23" s="3">
         <v>2</v>
       </c>
       <c r="AD23" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AE23" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AF23" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AG23" s="3">
         <v>4</v>
@@ -4741,61 +4741,61 @@
         <v>5</v>
       </c>
       <c r="AJ23" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AK23" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AL23" s="3">
         <v>4</v>
       </c>
       <c r="AM23" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AN23" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AO23" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AP23" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AQ23" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AR23" s="3">
         <v>2</v>
       </c>
       <c r="AS23" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AT23" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AU23" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AV23" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AW23" s="3">
         <v>2</v>
       </c>
       <c r="AX23" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AY23" s="3">
         <v>4</v>
       </c>
       <c r="AZ23" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BA23" s="3">
         <v>3</v>
       </c>
       <c r="BB23" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BC23" s="3">
         <v>3</v>
@@ -4804,36 +4804,36 @@
         <v>4</v>
       </c>
       <c r="BE23" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BF23" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="BG23" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BH23" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:60" ht="15.75" customHeight="1">
       <c r="A24" s="2">
-        <v>43705.565000532406</v>
+        <v>43705.578965347224</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>66</v>
       </c>
       <c r="C24" s="3">
-        <v>20173222</v>
+        <v>20173240</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="E24" s="3">
         <v>5</v>
       </c>
       <c r="F24" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G24" s="3">
         <v>3</v>
@@ -4842,288 +4842,285 @@
         <v>2</v>
       </c>
       <c r="I24" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J24" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K24" s="3">
         <v>5</v>
       </c>
       <c r="L24" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M24" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N24" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O24" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P24" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q24" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R24" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S24" s="3">
         <v>5</v>
       </c>
       <c r="T24" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="U24" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="V24" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="W24" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="X24" s="3">
         <v>2</v>
       </c>
       <c r="Y24" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Z24" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AA24" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AB24" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC24" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AD24" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AE24" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AF24" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AG24" s="3">
         <v>4</v>
       </c>
       <c r="AH24" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AI24" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AJ24" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AK24" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AL24" s="3">
         <v>3</v>
       </c>
       <c r="AM24" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AN24" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AO24" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AP24" s="3">
         <v>5</v>
       </c>
       <c r="AQ24" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AR24" s="3">
         <v>1</v>
       </c>
       <c r="AS24" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AT24" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AU24" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AV24" s="3">
         <v>2</v>
       </c>
       <c r="AW24" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX24" s="3">
         <v>4</v>
       </c>
       <c r="AY24" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AZ24" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BA24" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="BB24" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BC24" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BD24" s="3">
         <v>2</v>
       </c>
       <c r="BE24" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BF24" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="BG24" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BH24" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:60" ht="15.75" customHeight="1">
       <c r="A25" s="2">
-        <v>43705.550058078705</v>
+        <v>43705.552712951394</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="C25" s="3">
-        <v>20173228</v>
+        <v>20183238</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="E25" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F25" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G25" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H25" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I25" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J25" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K25" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L25" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M25" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N25" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O25" s="3">
         <v>5</v>
       </c>
       <c r="P25" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q25" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R25" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S25" s="3">
         <v>5</v>
       </c>
       <c r="T25" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="U25" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V25" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="W25" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="X25" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Y25" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z25" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AA25" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AB25" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AC25" s="3">
         <v>2</v>
       </c>
       <c r="AD25" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AE25" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AF25" s="3">
         <v>5</v>
       </c>
       <c r="AG25" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AH25" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AI25" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AJ25" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AK25" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AL25" s="3">
         <v>5</v>
       </c>
       <c r="AM25" s="3">
-        <v>4</v>
-      </c>
-      <c r="AN25" s="3">
         <v>5</v>
       </c>
       <c r="AO25" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AP25" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AQ25" s="3">
         <v>5</v>
@@ -5135,13 +5132,13 @@
         <v>4</v>
       </c>
       <c r="AT25" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AU25" s="3">
         <v>4</v>
       </c>
       <c r="AV25" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AW25" s="3">
         <v>1</v>
@@ -5156,25 +5153,25 @@
         <v>3</v>
       </c>
       <c r="BA25" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BB25" s="3">
         <v>1</v>
       </c>
       <c r="BC25" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BD25" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BE25" s="3">
         <v>3</v>
       </c>
       <c r="BF25" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="BG25" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BH25" s="3">
         <v>3</v>
@@ -5182,204 +5179,204 @@
     </row>
     <row r="26" spans="1:60" ht="15.75" customHeight="1">
       <c r="A26" s="2">
-        <v>43706.749465092595</v>
+        <v>43706.387945266208</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>66</v>
+        <v>89</v>
       </c>
       <c r="C26" s="3">
-        <v>20173232</v>
+        <v>20165325</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E26" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F26" s="3">
         <v>2</v>
       </c>
       <c r="G26" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H26" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I26" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J26" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K26" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L26" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M26" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N26" s="3">
         <v>3</v>
       </c>
       <c r="O26" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P26" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q26" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R26" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="S26" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="T26" s="3">
         <v>2</v>
       </c>
       <c r="U26" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V26" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="W26" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X26" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y26" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z26" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AA26" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AB26" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC26" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD26" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AE26" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AF26" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AG26" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AH26" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AI26" s="3">
         <v>3</v>
       </c>
       <c r="AJ26" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AK26" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AL26" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AM26" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AN26" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AO26" s="3">
         <v>3</v>
       </c>
       <c r="AP26" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AQ26" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AR26" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AS26" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AT26" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AU26" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AV26" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AW26" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX26" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AY26" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AZ26" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BA26" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BB26" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BC26" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BD26" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="BE26" s="3">
         <v>3</v>
       </c>
       <c r="BF26" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BG26" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BH26" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:60" ht="15.75" customHeight="1">
       <c r="A27" s="2">
-        <v>43705.578965347224</v>
+        <v>43705.564307662033</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="C27" s="3">
-        <v>20173240</v>
+        <v>20183240</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E27" s="3">
         <v>5</v>
       </c>
       <c r="F27" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G27" s="3">
         <v>3</v>
@@ -5388,31 +5385,31 @@
         <v>2</v>
       </c>
       <c r="I27" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J27" s="3">
         <v>5</v>
       </c>
       <c r="K27" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L27" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M27" s="3">
         <v>5</v>
       </c>
       <c r="N27" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O27" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="P27" s="3">
         <v>2</v>
       </c>
       <c r="Q27" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R27" s="3">
         <v>5</v>
@@ -5421,46 +5418,46 @@
         <v>5</v>
       </c>
       <c r="T27" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="U27" s="3">
         <v>5</v>
       </c>
       <c r="V27" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W27" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="X27" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Y27" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Z27" s="3">
         <v>5</v>
       </c>
       <c r="AA27" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AB27" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AC27" s="3">
         <v>5</v>
       </c>
       <c r="AD27" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AE27" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AF27" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AG27" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AH27" s="3">
         <v>5</v>
@@ -5469,79 +5466,79 @@
         <v>5</v>
       </c>
       <c r="AJ27" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AK27" s="3">
         <v>5</v>
       </c>
       <c r="AL27" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AM27" s="3">
         <v>3</v>
       </c>
       <c r="AN27" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AO27" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AP27" s="3">
         <v>5</v>
       </c>
       <c r="AQ27" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AR27" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AS27" s="3">
         <v>5</v>
       </c>
       <c r="AT27" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AU27" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AV27" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AW27" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AX27" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AY27" s="3">
         <v>5</v>
       </c>
       <c r="AZ27" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BA27" s="3">
         <v>5</v>
       </c>
       <c r="BB27" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="BC27" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BD27" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BE27" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BF27" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BG27" s="3">
         <v>5</v>
       </c>
       <c r="BH27" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28" spans="1:60" ht="15.75" customHeight="1">
@@ -5728,31 +5725,31 @@
     </row>
     <row r="29" spans="1:60" ht="15.75" customHeight="1">
       <c r="A29" s="2">
-        <v>43705.626427951385</v>
+        <v>43705.549000497689</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>91</v>
+        <v>60</v>
       </c>
       <c r="C29" s="3">
-        <v>20173246</v>
+        <v>20172628</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>92</v>
+        <v>61</v>
       </c>
       <c r="E29" s="3">
         <v>5</v>
       </c>
       <c r="F29" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G29" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H29" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I29" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J29" s="3">
         <v>5</v>
@@ -5761,61 +5758,61 @@
         <v>4</v>
       </c>
       <c r="L29" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M29" s="3">
         <v>3</v>
       </c>
       <c r="N29" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O29" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P29" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Q29" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R29" s="3">
         <v>4</v>
       </c>
       <c r="S29" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T29" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="U29" s="3">
         <v>3</v>
       </c>
       <c r="V29" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="W29" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="X29" s="3">
         <v>4</v>
       </c>
       <c r="Y29" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z29" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AA29" s="3">
         <v>4</v>
       </c>
       <c r="AB29" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AC29" s="3">
         <v>2</v>
       </c>
       <c r="AD29" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AE29" s="3">
         <v>3</v>
@@ -5824,10 +5821,10 @@
         <v>2</v>
       </c>
       <c r="AG29" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AH29" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AI29" s="3">
         <v>3</v>
@@ -5836,70 +5833,70 @@
         <v>4</v>
       </c>
       <c r="AK29" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AL29" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AM29" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AN29" s="3">
         <v>4</v>
       </c>
       <c r="AO29" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AP29" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AQ29" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AR29" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AS29" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AT29" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AU29" s="3">
         <v>5</v>
       </c>
       <c r="AV29" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AW29" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AX29" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AY29" s="3">
         <v>4</v>
       </c>
       <c r="AZ29" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BA29" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BB29" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BC29" s="3">
         <v>4</v>
       </c>
       <c r="BD29" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BE29" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BF29" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="BG29" s="3">
         <v>3</v>
@@ -5910,52 +5907,52 @@
     </row>
     <row r="30" spans="1:60" ht="15.75" customHeight="1">
       <c r="A30" s="2">
-        <v>43705.552023842596</v>
+        <v>43705.626427951385</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>66</v>
+        <v>91</v>
       </c>
       <c r="C30" s="3">
-        <v>20173251</v>
+        <v>20173246</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>74</v>
+        <v>92</v>
       </c>
       <c r="E30" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F30" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G30" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H30" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I30" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J30" s="3">
         <v>5</v>
       </c>
       <c r="K30" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L30" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M30" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N30" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O30" s="3">
         <v>4</v>
       </c>
       <c r="P30" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q30" s="3">
         <v>3</v>
@@ -5967,43 +5964,43 @@
         <v>4</v>
       </c>
       <c r="T30" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U30" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V30" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="W30" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X30" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Y30" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z30" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AA30" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AB30" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AC30" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD30" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AE30" s="3">
         <v>3</v>
       </c>
       <c r="AF30" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AG30" s="3">
         <v>2</v>
@@ -6012,25 +6009,25 @@
         <v>4</v>
       </c>
       <c r="AI30" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AJ30" s="3">
         <v>4</v>
       </c>
       <c r="AK30" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AL30" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AM30" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AN30" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AO30" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AP30" s="3">
         <v>3</v>
@@ -6039,34 +6036,34 @@
         <v>3</v>
       </c>
       <c r="AR30" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AS30" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AT30" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AU30" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AV30" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AW30" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX30" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AY30" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AZ30" s="3">
         <v>3</v>
       </c>
       <c r="BA30" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BB30" s="3">
         <v>1</v>
@@ -6075,39 +6072,39 @@
         <v>4</v>
       </c>
       <c r="BD30" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BE30" s="3">
         <v>3</v>
       </c>
       <c r="BF30" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BG30" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BH30" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31" spans="1:60" ht="15.75" customHeight="1">
       <c r="A31" s="2">
-        <v>43705.668021874997</v>
+        <v>43705.549458530091</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C31" s="3">
-        <v>20173261</v>
+        <v>20153427</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>93</v>
+        <v>63</v>
       </c>
       <c r="E31" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F31" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G31" s="3">
         <v>4</v>
@@ -6116,22 +6113,22 @@
         <v>3</v>
       </c>
       <c r="I31" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J31" s="3">
         <v>4</v>
       </c>
       <c r="K31" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L31" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M31" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N31" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O31" s="3">
         <v>4</v>
@@ -6140,133 +6137,133 @@
         <v>4</v>
       </c>
       <c r="Q31" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R31" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S31" s="3">
         <v>4</v>
       </c>
       <c r="T31" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U31" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V31" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="W31" s="3">
         <v>4</v>
       </c>
       <c r="X31" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Y31" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Z31" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AA31" s="3">
         <v>4</v>
       </c>
       <c r="AB31" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AC31" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AD31" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AE31" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AF31" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AG31" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AH31" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AI31" s="3">
         <v>4</v>
       </c>
       <c r="AJ31" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AK31" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AL31" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AM31" s="3">
         <v>4</v>
       </c>
       <c r="AN31" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AO31" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AP31" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AQ31" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AR31" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AS31" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AT31" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AU31" s="3">
         <v>4</v>
       </c>
       <c r="AV31" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AW31" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AX31" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AY31" s="3">
         <v>4</v>
       </c>
       <c r="AZ31" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BA31" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BB31" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BC31" s="3">
         <v>4</v>
       </c>
       <c r="BD31" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BE31" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BF31" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BG31" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BH31" s="3">
         <v>4</v>
@@ -6274,76 +6271,76 @@
     </row>
     <row r="32" spans="1:60" ht="15.75" customHeight="1">
       <c r="A32" s="2">
-        <v>43705.580699259255</v>
+        <v>43705.562827361107</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>66</v>
       </c>
       <c r="C32" s="3">
-        <v>20177094</v>
+        <v>20183246</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="E32" s="3">
         <v>4</v>
       </c>
       <c r="F32" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G32" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H32" s="3">
         <v>4</v>
       </c>
       <c r="I32" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J32" s="3">
         <v>4</v>
       </c>
       <c r="K32" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L32" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M32" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N32" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O32" s="3">
         <v>4</v>
       </c>
       <c r="P32" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Q32" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R32" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S32" s="3">
         <v>4</v>
       </c>
       <c r="T32" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="U32" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="V32" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="W32" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="X32" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Y32" s="3">
         <v>2</v>
@@ -6352,141 +6349,141 @@
         <v>2</v>
       </c>
       <c r="AA32" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AB32" s="3">
         <v>2</v>
       </c>
       <c r="AC32" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AD32" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE32" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AF32" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AG32" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AH32" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AI32" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AJ32" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AK32" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AL32" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AM32" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AN32" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AO32" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AP32" s="3">
         <v>3</v>
       </c>
       <c r="AQ32" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AR32" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AS32" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AT32" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AU32" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AV32" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AW32" s="3">
         <v>2</v>
       </c>
       <c r="AX32" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AY32" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AZ32" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BA32" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BB32" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BC32" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BD32" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BE32" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BF32" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BG32" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BH32" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33" spans="1:60" ht="15.75" customHeight="1">
       <c r="A33" s="2">
-        <v>43705.550792928239</v>
+        <v>43705.552023842596</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C33" s="3">
-        <v>20183205</v>
+        <v>20173251</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E33" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F33" s="3">
         <v>1</v>
       </c>
       <c r="G33" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H33" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I33" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J33" s="3">
         <v>5</v>
       </c>
       <c r="K33" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L33" s="3">
         <v>1</v>
@@ -6495,106 +6492,106 @@
         <v>1</v>
       </c>
       <c r="N33" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O33" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P33" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q33" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R33" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S33" s="3">
         <v>4</v>
       </c>
       <c r="T33" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U33" s="3">
         <v>1</v>
       </c>
       <c r="V33" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="W33" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="X33" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y33" s="3">
         <v>1</v>
       </c>
       <c r="Z33" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AA33" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AB33" s="3">
         <v>3</v>
       </c>
       <c r="AC33" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD33" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AE33" s="3">
         <v>3</v>
       </c>
       <c r="AF33" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AG33" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AH33" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AI33" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AJ33" s="3">
         <v>4</v>
       </c>
       <c r="AK33" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AL33" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AM33" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AN33" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AO33" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AP33" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AQ33" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AR33" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AS33" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AT33" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AU33" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AV33" s="3">
         <v>4</v>
@@ -6603,7 +6600,7 @@
         <v>1</v>
       </c>
       <c r="AX33" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AY33" s="3">
         <v>3</v>
@@ -6612,25 +6609,25 @@
         <v>3</v>
       </c>
       <c r="BA33" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BB33" s="3">
         <v>1</v>
       </c>
       <c r="BC33" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BD33" s="3">
         <v>1</v>
       </c>
       <c r="BE33" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BF33" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BG33" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BH33" s="3">
         <v>4</v>
@@ -6638,34 +6635,34 @@
     </row>
     <row r="34" spans="1:60" ht="15.75" customHeight="1">
       <c r="A34" s="2">
-        <v>43705.628904386569</v>
+        <v>43712.595332094905</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C34" s="3">
-        <v>20183214</v>
+        <v>20183249</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="E34" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F34" s="3">
         <v>1</v>
       </c>
       <c r="G34" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H34" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I34" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J34" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K34" s="3">
         <v>3</v>
@@ -6677,37 +6674,37 @@
         <v>1</v>
       </c>
       <c r="N34" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O34" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P34" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q34" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="R34" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S34" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="T34" s="3">
         <v>1</v>
       </c>
       <c r="U34" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V34" s="3">
         <v>1</v>
       </c>
       <c r="W34" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X34" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Y34" s="3">
         <v>1</v>
@@ -6716,19 +6713,19 @@
         <v>3</v>
       </c>
       <c r="AA34" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AB34" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC34" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD34" s="3">
         <v>1</v>
       </c>
       <c r="AE34" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AF34" s="3">
         <v>3</v>
@@ -6737,7 +6734,7 @@
         <v>1</v>
       </c>
       <c r="AH34" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AI34" s="3">
         <v>1</v>
@@ -6746,55 +6743,55 @@
         <v>1</v>
       </c>
       <c r="AK34" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AL34" s="3">
         <v>1</v>
       </c>
       <c r="AM34" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AN34" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AO34" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AP34" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AQ34" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AR34" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AS34" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AT34" s="3">
         <v>1</v>
       </c>
       <c r="AU34" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AV34" s="3">
         <v>1</v>
       </c>
       <c r="AW34" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX34" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AY34" s="3">
         <v>3</v>
       </c>
       <c r="AZ34" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="BA34" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BB34" s="3">
         <v>1</v>
@@ -6806,39 +6803,39 @@
         <v>1</v>
       </c>
       <c r="BE34" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="BF34" s="3">
         <v>1</v>
       </c>
       <c r="BG34" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BH34" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:60" ht="15.75" customHeight="1">
       <c r="A35" s="2">
-        <v>43705.552712951394</v>
+        <v>43705.553477083333</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C35" s="3">
-        <v>20183238</v>
+        <v>20143432</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E35" s="3">
         <v>4</v>
       </c>
       <c r="F35" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G35" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H35" s="3">
         <v>4</v>
@@ -6850,82 +6847,82 @@
         <v>3</v>
       </c>
       <c r="K35" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L35" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M35" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N35" s="3">
         <v>3</v>
       </c>
       <c r="O35" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P35" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Q35" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R35" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="S35" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T35" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="U35" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V35" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="W35" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="X35" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Y35" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z35" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AA35" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AB35" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AC35" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD35" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AE35" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AF35" s="3">
         <v>5</v>
       </c>
       <c r="AG35" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AH35" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AI35" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AJ35" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AK35" s="3">
         <v>3</v>
@@ -6934,55 +6931,58 @@
         <v>5</v>
       </c>
       <c r="AM35" s="3">
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="AN35" s="3">
+        <v>4</v>
       </c>
       <c r="AO35" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AP35" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AQ35" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AR35" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AS35" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AT35" s="3">
         <v>1</v>
       </c>
       <c r="AU35" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AV35" s="3">
         <v>2</v>
       </c>
       <c r="AW35" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AX35" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AY35" s="3">
         <v>4</v>
       </c>
       <c r="AZ35" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BA35" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BB35" s="3">
         <v>1</v>
       </c>
       <c r="BC35" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BD35" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BE35" s="3">
         <v>3</v>
@@ -6991,126 +6991,126 @@
         <v>1</v>
       </c>
       <c r="BG35" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BH35" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:60" ht="15.75" customHeight="1">
       <c r="A36" s="2">
-        <v>43705.564307662033</v>
+        <v>43705.583818900464</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C36" s="3">
-        <v>20183240</v>
+        <v>20153433</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="E36" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F36" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G36" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H36" s="3">
         <v>2</v>
       </c>
       <c r="I36" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J36" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K36" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L36" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M36" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N36" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O36" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P36" s="3">
         <v>2</v>
       </c>
       <c r="Q36" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="R36" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S36" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T36" s="3">
         <v>2</v>
       </c>
       <c r="U36" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="V36" s="3">
         <v>3</v>
       </c>
       <c r="W36" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X36" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Y36" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Z36" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AA36" s="3">
         <v>3</v>
       </c>
       <c r="AB36" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AC36" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AD36" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AE36" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AF36" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AG36" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AH36" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AI36" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AJ36" s="3">
         <v>3</v>
       </c>
       <c r="AK36" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AL36" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AM36" s="3">
         <v>3</v>
@@ -7122,102 +7122,102 @@
         <v>2</v>
       </c>
       <c r="AP36" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AQ36" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AR36" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AS36" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AT36" s="3">
         <v>2</v>
       </c>
       <c r="AU36" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AV36" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AW36" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AX36" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AY36" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AZ36" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BA36" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="BB36" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BC36" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BD36" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BE36" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BF36" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BG36" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="BH36" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="37" spans="1:60" ht="15.75" customHeight="1">
       <c r="A37" s="2">
-        <v>43705.562827361107</v>
+        <v>43708.543415810185</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>66</v>
+        <v>104</v>
       </c>
       <c r="C37" s="3">
-        <v>20183246</v>
+        <v>20183253</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="E37" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F37" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G37" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H37" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I37" s="3">
         <v>2</v>
       </c>
       <c r="J37" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K37" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L37" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M37" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N37" s="3">
         <v>2</v>
@@ -7226,34 +7226,34 @@
         <v>4</v>
       </c>
       <c r="P37" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q37" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R37" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S37" s="3">
         <v>4</v>
       </c>
       <c r="T37" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="U37" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="V37" s="3">
         <v>2</v>
       </c>
       <c r="W37" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X37" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Y37" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z37" s="3">
         <v>2</v>
@@ -7268,37 +7268,37 @@
         <v>2</v>
       </c>
       <c r="AD37" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AE37" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AF37" s="3">
         <v>3</v>
       </c>
       <c r="AG37" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AH37" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AI37" s="3">
         <v>2</v>
       </c>
       <c r="AJ37" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AK37" s="3">
         <v>2</v>
       </c>
       <c r="AL37" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AM37" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AN37" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AO37" s="3">
         <v>3</v>
@@ -7310,7 +7310,7 @@
         <v>2</v>
       </c>
       <c r="AR37" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AS37" s="3">
         <v>2</v>
@@ -7319,40 +7319,40 @@
         <v>2</v>
       </c>
       <c r="AU37" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AV37" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AW37" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AX37" s="3">
         <v>3</v>
       </c>
       <c r="AY37" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AZ37" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BA37" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BB37" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BC37" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BD37" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BE37" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BF37" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BG37" s="3">
         <v>3</v>
@@ -7363,22 +7363,22 @@
     </row>
     <row r="38" spans="1:60" ht="15.75" customHeight="1">
       <c r="A38" s="2">
-        <v>43708.39930193287</v>
+        <v>43705.556608634259</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C38" s="3">
-        <v>20183249</v>
+        <v>20163257</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>103</v>
+        <v>79</v>
       </c>
       <c r="E38" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F38" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G38" s="3">
         <v>3</v>
@@ -7387,61 +7387,61 @@
         <v>3</v>
       </c>
       <c r="I38" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J38" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K38" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L38" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M38" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N38" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O38" s="3">
         <v>2</v>
       </c>
       <c r="P38" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q38" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R38" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S38" s="3">
         <v>4</v>
       </c>
       <c r="T38" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U38" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V38" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W38" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X38" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Y38" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z38" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AA38" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AB38" s="3">
         <v>1</v>
@@ -7450,648 +7450,284 @@
         <v>1</v>
       </c>
       <c r="AD38" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE38" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AF38" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AG38" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AH38" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AI38" s="3">
         <v>2</v>
       </c>
       <c r="AJ38" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AK38" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AL38" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AM38" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AN38" s="3">
         <v>2</v>
       </c>
       <c r="AO38" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AP38" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AQ38" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AR38" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AS38" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AT38" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AU38" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AV38" s="3">
         <v>2</v>
       </c>
       <c r="AW38" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AX38" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AY38" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AZ38" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BA38" s="3">
         <v>2</v>
       </c>
       <c r="BB38" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BC38" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BD38" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BE38" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BF38" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BG38" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BH38" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="39" spans="1:60" ht="15.75" customHeight="1">
       <c r="A39" s="2">
-        <v>43712.595332094905</v>
+        <v>43707.85568680556</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C39" s="3">
-        <v>20183249</v>
+        <v>20183262</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E39" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F39" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G39" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H39" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I39" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J39" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K39" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L39" s="3">
         <v>1</v>
       </c>
       <c r="M39" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N39" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O39" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P39" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="Q39" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="R39" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="S39" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="T39" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U39" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V39" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="W39" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="X39" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Y39" s="3">
         <v>1</v>
       </c>
       <c r="Z39" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AA39" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AB39" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC39" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AD39" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AE39" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AF39" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AG39" s="3">
         <v>1</v>
       </c>
       <c r="AH39" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AI39" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AJ39" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AK39" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AL39" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AM39" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AN39" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AO39" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AP39" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AQ39" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AR39" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AS39" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AT39" s="3">
         <v>1</v>
       </c>
       <c r="AU39" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AV39" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AW39" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX39" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AY39" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AZ39" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BA39" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="BB39" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BC39" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BD39" s="3">
         <v>1</v>
       </c>
       <c r="BE39" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="BF39" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="BG39" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BH39" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:60" ht="15.75" customHeight="1">
-      <c r="A40" s="2">
-        <v>43708.543415810185</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="C40" s="3">
-        <v>20183253</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="E40" s="3">
-        <v>3</v>
-      </c>
-      <c r="F40" s="3">
-        <v>4</v>
-      </c>
-      <c r="G40" s="3">
-        <v>3</v>
-      </c>
-      <c r="H40" s="3">
-        <v>3</v>
-      </c>
-      <c r="I40" s="3">
-        <v>2</v>
-      </c>
-      <c r="J40" s="3">
-        <v>3</v>
-      </c>
-      <c r="K40" s="3">
-        <v>4</v>
-      </c>
-      <c r="L40" s="3">
-        <v>3</v>
-      </c>
-      <c r="M40" s="3">
-        <v>3</v>
-      </c>
-      <c r="N40" s="3">
-        <v>2</v>
-      </c>
-      <c r="O40" s="3">
-        <v>4</v>
-      </c>
-      <c r="P40" s="3">
-        <v>3</v>
-      </c>
-      <c r="Q40" s="3">
-        <v>3</v>
-      </c>
-      <c r="R40" s="3">
-        <v>4</v>
-      </c>
-      <c r="S40" s="3">
-        <v>4</v>
-      </c>
-      <c r="T40" s="3">
-        <v>4</v>
-      </c>
-      <c r="U40" s="3">
-        <v>5</v>
-      </c>
-      <c r="V40" s="3">
-        <v>2</v>
-      </c>
-      <c r="W40" s="3">
-        <v>3</v>
-      </c>
-      <c r="X40" s="3">
-        <v>4</v>
-      </c>
-      <c r="Y40" s="3">
-        <v>1</v>
-      </c>
-      <c r="Z40" s="3">
-        <v>2</v>
-      </c>
-      <c r="AA40" s="3">
-        <v>2</v>
-      </c>
-      <c r="AB40" s="3">
-        <v>2</v>
-      </c>
-      <c r="AC40" s="3">
-        <v>2</v>
-      </c>
-      <c r="AD40" s="3">
-        <v>2</v>
-      </c>
-      <c r="AE40" s="3">
-        <v>4</v>
-      </c>
-      <c r="AF40" s="3">
-        <v>3</v>
-      </c>
-      <c r="AG40" s="3">
-        <v>4</v>
-      </c>
-      <c r="AH40" s="3">
-        <v>4</v>
-      </c>
-      <c r="AI40" s="3">
-        <v>2</v>
-      </c>
-      <c r="AJ40" s="3">
-        <v>4</v>
-      </c>
-      <c r="AK40" s="3">
-        <v>2</v>
-      </c>
-      <c r="AL40" s="3">
-        <v>1</v>
-      </c>
-      <c r="AM40" s="3">
-        <v>3</v>
-      </c>
-      <c r="AN40" s="3">
-        <v>3</v>
-      </c>
-      <c r="AO40" s="3">
-        <v>3</v>
-      </c>
-      <c r="AP40" s="3">
-        <v>3</v>
-      </c>
-      <c r="AQ40" s="3">
-        <v>2</v>
-      </c>
-      <c r="AR40" s="3">
-        <v>2</v>
-      </c>
-      <c r="AS40" s="3">
-        <v>2</v>
-      </c>
-      <c r="AT40" s="3">
-        <v>2</v>
-      </c>
-      <c r="AU40" s="3">
-        <v>4</v>
-      </c>
-      <c r="AV40" s="3">
-        <v>4</v>
-      </c>
-      <c r="AW40" s="3">
-        <v>3</v>
-      </c>
-      <c r="AX40" s="3">
-        <v>3</v>
-      </c>
-      <c r="AY40" s="3">
-        <v>4</v>
-      </c>
-      <c r="AZ40" s="3">
-        <v>4</v>
-      </c>
-      <c r="BA40" s="3">
-        <v>1</v>
-      </c>
-      <c r="BB40" s="3">
-        <v>1</v>
-      </c>
-      <c r="BC40" s="3">
-        <v>4</v>
-      </c>
-      <c r="BD40" s="3">
-        <v>1</v>
-      </c>
-      <c r="BE40" s="3">
-        <v>4</v>
-      </c>
-      <c r="BF40" s="3">
-        <v>3</v>
-      </c>
-      <c r="BG40" s="3">
-        <v>3</v>
-      </c>
-      <c r="BH40" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="41" spans="1:60" ht="15.75" customHeight="1">
-      <c r="A41" s="2">
-        <v>43707.85568680556</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="C41" s="3">
-        <v>20183262</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="E41" s="3">
-        <v>5</v>
-      </c>
-      <c r="F41" s="3">
-        <v>2</v>
-      </c>
-      <c r="G41" s="3">
-        <v>1</v>
-      </c>
-      <c r="H41" s="3">
-        <v>4</v>
-      </c>
-      <c r="I41" s="3">
-        <v>3</v>
-      </c>
-      <c r="J41" s="3">
-        <v>5</v>
-      </c>
-      <c r="K41" s="3">
-        <v>2</v>
-      </c>
-      <c r="L41" s="3">
-        <v>1</v>
-      </c>
-      <c r="M41" s="3">
-        <v>4</v>
-      </c>
-      <c r="N41" s="3">
-        <v>5</v>
-      </c>
-      <c r="O41" s="3">
-        <v>5</v>
-      </c>
-      <c r="P41" s="3">
-        <v>5</v>
-      </c>
-      <c r="Q41" s="3">
-        <v>5</v>
-      </c>
-      <c r="R41" s="3">
-        <v>4</v>
-      </c>
-      <c r="S41" s="3">
-        <v>4</v>
-      </c>
-      <c r="T41" s="3">
-        <v>2</v>
-      </c>
-      <c r="U41" s="3">
-        <v>3</v>
-      </c>
-      <c r="V41" s="3">
-        <v>4</v>
-      </c>
-      <c r="W41" s="3">
-        <v>4</v>
-      </c>
-      <c r="X41" s="3">
-        <v>2</v>
-      </c>
-      <c r="Y41" s="3">
-        <v>1</v>
-      </c>
-      <c r="Z41" s="3">
-        <v>5</v>
-      </c>
-      <c r="AA41" s="3">
-        <v>5</v>
-      </c>
-      <c r="AB41" s="3">
-        <v>1</v>
-      </c>
-      <c r="AC41" s="3">
-        <v>3</v>
-      </c>
-      <c r="AD41" s="3">
-        <v>4</v>
-      </c>
-      <c r="AE41" s="3">
-        <v>5</v>
-      </c>
-      <c r="AF41" s="3">
-        <v>4</v>
-      </c>
-      <c r="AG41" s="3">
-        <v>1</v>
-      </c>
-      <c r="AH41" s="3">
-        <v>5</v>
-      </c>
-      <c r="AI41" s="3">
-        <v>3</v>
-      </c>
-      <c r="AJ41" s="3">
-        <v>5</v>
-      </c>
-      <c r="AK41" s="3">
-        <v>5</v>
-      </c>
-      <c r="AL41" s="3">
-        <v>4</v>
-      </c>
-      <c r="AM41" s="3">
-        <v>2</v>
-      </c>
-      <c r="AN41" s="3">
-        <v>5</v>
-      </c>
-      <c r="AO41" s="3">
-        <v>4</v>
-      </c>
-      <c r="AP41" s="3">
-        <v>5</v>
-      </c>
-      <c r="AQ41" s="3">
-        <v>4</v>
-      </c>
-      <c r="AR41" s="3">
-        <v>1</v>
-      </c>
-      <c r="AS41" s="3">
-        <v>1</v>
-      </c>
-      <c r="AT41" s="3">
-        <v>1</v>
-      </c>
-      <c r="AU41" s="3">
-        <v>4</v>
-      </c>
-      <c r="AV41" s="3">
-        <v>5</v>
-      </c>
-      <c r="AW41" s="3">
-        <v>1</v>
-      </c>
-      <c r="AX41" s="3">
-        <v>5</v>
-      </c>
-      <c r="AY41" s="3">
-        <v>2</v>
-      </c>
-      <c r="AZ41" s="3">
-        <v>3</v>
-      </c>
-      <c r="BA41" s="3">
-        <v>5</v>
-      </c>
-      <c r="BB41" s="3">
-        <v>2</v>
-      </c>
-      <c r="BC41" s="3">
-        <v>4</v>
-      </c>
-      <c r="BD41" s="3">
-        <v>1</v>
-      </c>
-      <c r="BE41" s="3">
-        <v>5</v>
-      </c>
-      <c r="BF41" s="3">
-        <v>5</v>
-      </c>
-      <c r="BG41" s="3">
-        <v>2</v>
-      </c>
-      <c r="BH41" s="3">
         <v>4</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:BH41">
-    <sortCondition ref="C1"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:BH40">
+    <sortCondition ref="D1:D40"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
